--- a/migforecasting/underground/tests on superdataset/test-7.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-7.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>theatres</t>
+  </si>
+  <si>
+    <t>Ср. значение</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Мин</t>
+  </si>
+  <si>
+    <t>Кол-во нулей</t>
+  </si>
+  <si>
+    <t>Анализ признаков в датасете (размер выборки +1900 примеров)</t>
   </si>
 </sst>
 </file>
@@ -999,15 +1014,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1292,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J58"/>
+  <dimension ref="C3:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,9 +1319,18 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1317,8 +1341,23 @@
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
@@ -1332,8 +1371,23 @@
       <c r="J5" s="3">
         <v>0.36823421307038701</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4">
+        <v>586.64</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>38482</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1349,8 +1403,23 @@
       <c r="J6" s="3">
         <v>0.25379999916059359</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4">
+        <v>34.07</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>359</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -1367,8 +1436,23 @@
       <c r="J7" s="3">
         <v>0.21624479087840151</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="4">
+        <v>44.48</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>730</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -1385,8 +1469,23 @@
       <c r="J8" s="3">
         <v>5.6041203799897653E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>35</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1403,8 +1502,23 @@
       <c r="J9" s="3">
         <v>1.7091128958066179E-2</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>4</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1421,8 +1535,23 @@
       <c r="J10" s="3">
         <v>8.8588664132654038E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="O10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>34</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1434,7 +1563,7 @@
         <v>123.044330238721</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1446,7 +1575,7 @@
         <v>108.4202632624899</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1458,7 +1587,7 @@
         <v>114.0562878230316</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1470,7 +1599,7 @@
         <v>113.0034246135246</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1482,7 +1611,7 @@
         <v>109.19189230848809</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>

--- a/migforecasting/underground/tests on superdataset/test-7.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-7.xlsx
@@ -72,7 +72,7 @@
     <t>Кол-во нулей</t>
   </si>
   <si>
-    <t>Анализ признаков в датасете (размер выборки +1900 примеров)</t>
+    <t>Анализ признаков в датасете (размер выборки 1925 примеров)</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1310,7 @@
   <dimension ref="C3:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="P5" s="4">
-        <v>586.64</v>
+        <v>601.5</v>
       </c>
       <c r="Q5" s="4">
         <v>38482</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>937</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="4">
-        <v>34.07</v>
+        <v>38.01</v>
       </c>
       <c r="Q6" s="4">
         <v>359</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="4">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="4">
-        <v>44.48</v>
+        <v>45.61</v>
       </c>
       <c r="Q7" s="4">
         <v>730</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="4">
-        <v>811</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="P8" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="Q8" s="4">
         <v>35</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="4">
-        <v>1278</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="4">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="4">
         <v>4</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>1646</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>1746</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">

--- a/migforecasting/underground/tests on superdataset/test-7.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-7.xlsx
@@ -280,22 +280,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.36823421307038701</c:v>
+                  <c:v>0.37198699612528652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25379999916059359</c:v>
+                  <c:v>0.2505702063982585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21624479087840151</c:v>
+                  <c:v>0.2151005504880607</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6041203799897653E-2</c:v>
+                  <c:v>5.7209523356183449E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7091128958066179E-2</c:v>
+                  <c:v>1.710435042714329E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8588664132654038E-2</c:v>
+                  <c:v>8.8028373205067567E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,16 +1013,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="3">
-        <v>0.36823421307038701</v>
+        <v>0.37198699612528652</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>7</v>
@@ -1392,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>44.614451854973012</v>
+        <v>46.546808236082732</v>
       </c>
       <c r="E6" s="3">
-        <v>120.94312663499571</v>
+        <v>126.66560104452699</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="3">
-        <v>0.25379999916059359</v>
+        <v>0.2505702063982585</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>8</v>
@@ -1425,16 +1425,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>45.705387066505352</v>
+        <v>44.868328854326514</v>
       </c>
       <c r="E7" s="3">
-        <v>99.599577194177783</v>
+        <v>104.55153086721209</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="3">
-        <v>0.21624479087840151</v>
+        <v>0.2151005504880607</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>9</v>
@@ -1458,16 +1458,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47.000843239975993</v>
+        <v>49.167188225352596</v>
       </c>
       <c r="E8" s="3">
-        <v>93.039091834519184</v>
+        <v>88.952730723962688</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="3">
-        <v>5.6041203799897653E-2</v>
+        <v>5.7209523356183449E-2</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>10</v>
@@ -1491,16 +1491,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>45.972143859443143</v>
+        <v>45.974915058174368</v>
       </c>
       <c r="E9" s="3">
-        <v>108.80312288624221</v>
+        <v>115.65517279439941</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="3">
-        <v>1.7091128958066179E-2</v>
+        <v>1.710435042714329E-2</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>11</v>
@@ -1524,16 +1524,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>47.052305545559378</v>
+        <v>44.744124367073162</v>
       </c>
       <c r="E10" s="3">
-        <v>82.741433829386452</v>
+        <v>120.4114539377597</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="3">
-        <v>8.8588664132654038E-2</v>
+        <v>8.8028373205067567E-2</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>12</v>
@@ -1557,10 +1557,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="3">
-        <v>43.499766462381629</v>
+        <v>47.094016636640269</v>
       </c>
       <c r="E11" s="3">
-        <v>123.044330238721</v>
+        <v>93.340515555806448</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
@@ -1569,10 +1569,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46.163065749785311</v>
+        <v>44.721643465524771</v>
       </c>
       <c r="E12" s="3">
-        <v>108.4202632624899</v>
+        <v>118.4493890066247</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
@@ -1581,10 +1581,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>47.436553897216328</v>
+        <v>45.007889414988007</v>
       </c>
       <c r="E13" s="3">
-        <v>114.0562878230316</v>
+        <v>117.63805673776049</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
@@ -1593,10 +1593,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>43.387326071028383</v>
+        <v>47.11855311585331</v>
       </c>
       <c r="E14" s="3">
-        <v>113.0034246135246</v>
+        <v>106.889183412804</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
@@ -1605,10 +1605,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>45.56654336640063</v>
+        <v>47.352949687071131</v>
       </c>
       <c r="E15" s="3">
-        <v>109.19189230848809</v>
+        <v>87.050438870950245</v>
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
@@ -1617,10 +1617,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="3">
-        <v>45.960259084865847</v>
+        <v>45.238102337063992</v>
       </c>
       <c r="E16" s="3">
-        <v>112.26002436151551</v>
+        <v>115.37963861896969</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -1629,10 +1629,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44.584805149802982</v>
+        <v>46.371914091792</v>
       </c>
       <c r="E17" s="3">
-        <v>100.43316156144979</v>
+        <v>112.2713660950635</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -1641,10 +1641,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>44.718877856784403</v>
+        <v>45.877253699264898</v>
       </c>
       <c r="E18" s="3">
-        <v>124.400933624198</v>
+        <v>113.5712594537319</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -1653,10 +1653,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="3">
-        <v>44.387455083984293</v>
+        <v>45.903155445824609</v>
       </c>
       <c r="E19" s="3">
-        <v>100.8347414983303</v>
+        <v>109.5132020045485</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
@@ -1665,10 +1665,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>45.255666690977357</v>
+        <v>44.955465109649772</v>
       </c>
       <c r="E20" s="3">
-        <v>113.6526062167992</v>
+        <v>123.1945882353339</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
@@ -1677,10 +1677,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45.251155195385998</v>
+        <v>44.285193066694077</v>
       </c>
       <c r="E21" s="3">
-        <v>105.4902285136591</v>
+        <v>100.0834248050177</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44.488853902349497</v>
+        <v>46.772090729813968</v>
       </c>
       <c r="E22" s="3">
-        <v>96.105337039909841</v>
+        <v>110.0511838091946</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
@@ -1701,10 +1701,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>43.002040529877263</v>
+        <v>47.820695662894721</v>
       </c>
       <c r="E23" s="3">
-        <v>121.4631612948416</v>
+        <v>103.3099770502829</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
@@ -1713,10 +1713,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43.792584819984647</v>
+        <v>45.304769008999457</v>
       </c>
       <c r="E24" s="3">
-        <v>115.5492508972996</v>
+        <v>103.67366552341061</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -1725,10 +1725,10 @@
         <v>20</v>
       </c>
       <c r="D25" s="3">
-        <v>44.161368815244941</v>
+        <v>45.701840613600218</v>
       </c>
       <c r="E25" s="3">
-        <v>107.5247878856246</v>
+        <v>110.71903033203191</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
@@ -1737,10 +1737,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>46.086595329433052</v>
+        <v>46.782408550815383</v>
       </c>
       <c r="E26" s="3">
-        <v>111.1896038722285</v>
+        <v>114.6188558521651</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
@@ -1749,10 +1749,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43.988109599995809</v>
+        <v>45.362572125209667</v>
       </c>
       <c r="E27" s="3">
-        <v>114.2977553496071</v>
+        <v>103.89706771406939</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
@@ -1761,10 +1761,10 @@
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>43.258882751097197</v>
+        <v>44.638248022734643</v>
       </c>
       <c r="E28" s="3">
-        <v>113.578785802938</v>
+        <v>113.6929857537075</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
@@ -1773,10 +1773,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>46.132855463377958</v>
+        <v>44.430761827220572</v>
       </c>
       <c r="E29" s="3">
-        <v>115.6580615626719</v>
+        <v>124.7314115181216</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
@@ -1785,10 +1785,10 @@
         <v>25</v>
       </c>
       <c r="D30" s="3">
-        <v>45.461465535179968</v>
+        <v>44.710538349136662</v>
       </c>
       <c r="E30" s="3">
-        <v>109.757472785302</v>
+        <v>135.67507161460989</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
@@ -1797,10 +1797,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="3">
-        <v>44.620686778903632</v>
+        <v>46.644315251201128</v>
       </c>
       <c r="E31" s="3">
-        <v>130.635794576232</v>
+        <v>100.3654241367048</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
@@ -1809,10 +1809,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>46.459904077920193</v>
+        <v>46.897336324395162</v>
       </c>
       <c r="E32" s="3">
-        <v>91.69682921084096</v>
+        <v>107.4816933776211</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
@@ -1821,10 +1821,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>46.139844406374117</v>
+        <v>45.292265224102323</v>
       </c>
       <c r="E33" s="3">
-        <v>109.0323099821066</v>
+        <v>109.8855926305351</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
@@ -1833,10 +1833,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="3">
-        <v>43.210177675598374</v>
+        <v>43.535568767769938</v>
       </c>
       <c r="E34" s="3">
-        <v>113.8025952728064</v>
+        <v>123.6284772109794</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
@@ -1845,10 +1845,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45.319933632029247</v>
+        <v>45.380681691888363</v>
       </c>
       <c r="E35" s="3">
-        <v>89.920692339545667</v>
+        <v>105.85970288702239</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
@@ -1857,10 +1857,10 @@
         <v>31</v>
       </c>
       <c r="D36" s="3">
-        <v>43.192733144119899</v>
+        <v>45.731012331140562</v>
       </c>
       <c r="E36" s="3">
-        <v>144.68987838810321</v>
+        <v>136.13681474625241</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
@@ -1869,10 +1869,10 @@
         <v>32</v>
       </c>
       <c r="D37" s="3">
-        <v>47.358120812407869</v>
+        <v>45.843566148351677</v>
       </c>
       <c r="E37" s="3">
-        <v>108.91679381174809</v>
+        <v>107.92405446754699</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
@@ -1881,10 +1881,10 @@
         <v>33</v>
       </c>
       <c r="D38" s="3">
-        <v>44.47838621895913</v>
+        <v>48.464023671524401</v>
       </c>
       <c r="E38" s="3">
-        <v>108.7246991558824</v>
+        <v>121.2179266339654</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
@@ -1893,10 +1893,10 @@
         <v>34</v>
       </c>
       <c r="D39" s="3">
-        <v>45.556181377852141</v>
+        <v>46.730858642240378</v>
       </c>
       <c r="E39" s="3">
-        <v>102.48437469049711</v>
+        <v>105.41798563033301</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
@@ -1905,10 +1905,10 @@
         <v>35</v>
       </c>
       <c r="D40" s="3">
-        <v>46.050534974001643</v>
+        <v>47.898116166206307</v>
       </c>
       <c r="E40" s="3">
-        <v>96.512214513883848</v>
+        <v>106.4579089792764</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
@@ -1917,10 +1917,10 @@
         <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>43.04231470749658</v>
+        <v>47.55426619369463</v>
       </c>
       <c r="E41" s="3">
-        <v>113.29396514184469</v>
+        <v>104.4574057087663</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
@@ -1929,10 +1929,10 @@
         <v>37</v>
       </c>
       <c r="D42" s="3">
-        <v>45.155368948541764</v>
+        <v>46.596657568433223</v>
       </c>
       <c r="E42" s="3">
-        <v>96.21286737914518</v>
+        <v>125.23853234660329</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
@@ -1941,10 +1941,10 @@
         <v>38</v>
       </c>
       <c r="D43" s="3">
-        <v>47.02468736079161</v>
+        <v>46.125963924015871</v>
       </c>
       <c r="E43" s="3">
-        <v>99.75717053572258</v>
+        <v>100.4447572568405</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
@@ -1953,10 +1953,10 @@
         <v>39</v>
       </c>
       <c r="D44" s="3">
-        <v>45.52142918866241</v>
+        <v>44.200856695957057</v>
       </c>
       <c r="E44" s="3">
-        <v>99.885404714908944</v>
+        <v>122.8727364038232</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
@@ -1965,10 +1965,10 @@
         <v>40</v>
       </c>
       <c r="D45" s="3">
-        <v>43.181499999287212</v>
+        <v>45.062623283488129</v>
       </c>
       <c r="E45" s="3">
-        <v>124.3399799062806</v>
+        <v>114.5797857027257</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
@@ -1977,10 +1977,10 @@
         <v>41</v>
       </c>
       <c r="D46" s="3">
-        <v>44.194444523121668</v>
+        <v>44.380493138954591</v>
       </c>
       <c r="E46" s="3">
-        <v>114.3633764207266</v>
+        <v>117.46881146311959</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
@@ -1989,10 +1989,10 @@
         <v>42</v>
       </c>
       <c r="D47" s="3">
-        <v>46.429654802494802</v>
+        <v>45.663262986378882</v>
       </c>
       <c r="E47" s="3">
-        <v>116.8270921250635</v>
+        <v>106.7983813760513</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
@@ -2001,10 +2001,10 @@
         <v>43</v>
       </c>
       <c r="D48" s="3">
-        <v>43.524992067360323</v>
+        <v>46.323591970506833</v>
       </c>
       <c r="E48" s="3">
-        <v>122.632686147736</v>
+        <v>122.5587229553804</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
@@ -2013,10 +2013,10 @@
         <v>44</v>
       </c>
       <c r="D49" s="3">
-        <v>46.669887326699509</v>
+        <v>44.141072676464077</v>
       </c>
       <c r="E49" s="3">
-        <v>100.79713802239129</v>
+        <v>119.1417513516375</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
@@ -2025,10 +2025,10 @@
         <v>45</v>
       </c>
       <c r="D50" s="3">
-        <v>44.192361790959573</v>
+        <v>45.288134896037192</v>
       </c>
       <c r="E50" s="3">
-        <v>110.3976086700537</v>
+        <v>121.3785249186338</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
@@ -2037,10 +2037,10 @@
         <v>46</v>
       </c>
       <c r="D51" s="3">
-        <v>44.968527977639802</v>
+        <v>45.593532459054728</v>
       </c>
       <c r="E51" s="3">
-        <v>106.7266823880654</v>
+        <v>124.0013819208062</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
@@ -2049,10 +2049,10 @@
         <v>47</v>
       </c>
       <c r="D52" s="3">
-        <v>42.248901359068149</v>
+        <v>45.620007532054323</v>
       </c>
       <c r="E52" s="3">
-        <v>128.45597684197551</v>
+        <v>112.0633699911904</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
@@ -2061,10 +2061,10 @@
         <v>48</v>
       </c>
       <c r="D53" s="3">
-        <v>46.557656878202543</v>
+        <v>46.265883697761957</v>
       </c>
       <c r="E53" s="3">
-        <v>99.724086849380001</v>
+        <v>112.4334590945093</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
@@ -2073,10 +2073,10 @@
         <v>49</v>
       </c>
       <c r="D54" s="3">
-        <v>41.770652657001023</v>
+        <v>46.795044057769744</v>
       </c>
       <c r="E54" s="3">
-        <v>113.7131856063709</v>
+        <v>108.96364206022869</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
@@ -2085,10 +2085,10 @@
         <v>50</v>
       </c>
       <c r="D55" s="3">
-        <v>43.994693904891179</v>
+        <v>49.14180112002839</v>
       </c>
       <c r="E55" s="3">
-        <v>108.2553887343868</v>
+        <v>88.027609504667723</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
@@ -2097,11 +2097,11 @@
       </c>
       <c r="D57" s="3">
         <f>AVERAGE(D6:D55)</f>
-        <v>44.955858790239901</v>
+        <v>45.958447242424448</v>
       </c>
       <c r="E57" s="3">
         <f>AVERAGE(E6:E55)</f>
-        <v>109.73674508635303</v>
+        <v>111.97582508174568</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
@@ -2110,11 +2110,11 @@
       </c>
       <c r="D58" s="3">
         <f>_xlfn.STDEV.S(D6:D55)</f>
-        <v>1.3972750401419012</v>
+        <v>1.272381231850118</v>
       </c>
       <c r="E58" s="3">
         <f>_xlfn.STDEV.S(E6:E55)</f>
-        <v>11.361290947523841</v>
+        <v>10.888276073036728</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-7.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-7.xlsx
@@ -173,80 +173,34 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>mae!$I$5:$I$10</c:f>
@@ -302,56 +256,41 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C099-4BCE-BC61-4E871A620244}"/>
+              <c16:uniqueId val="{00000000-0F52-4FDE-8BE0-7E1DEB72E13B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
-        <c:axId val="1619453039"/>
-        <c:axId val="1619453455"/>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="1375727824"/>
+        <c:axId val="1375730736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1619453039"/>
+        <c:axId val="1375727824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -363,7 +302,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -378,7 +317,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1619453455"/>
+        <c:crossAx val="1375730736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -386,17 +325,57 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1619453455"/>
+        <c:axId val="1375730736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1619453039"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1375727824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -414,7 +393,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -486,7 +465,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -497,7 +476,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -510,17 +489,17 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -531,7 +510,7 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -551,14 +530,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -593,14 +569,29 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -613,9 +604,22 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -628,7 +632,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -637,9 +641,7 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -651,15 +653,9 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -717,8 +713,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -739,6 +735,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -753,8 +750,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -777,14 +774,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -817,10 +813,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -880,17 +877,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -918,11 +904,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -938,7 +924,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -952,7 +937,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -968,8 +953,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -985,17 +970,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1013,20 +987,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1310,7 +1284,7 @@
   <dimension ref="C3:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O3" sqref="O3:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
